--- a/CompletedProgram/ptx 200 7d.xlsx
+++ b/CompletedProgram/ptx 200 7d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feroze\Google Drive\DUKE 2016-2020\AxoSim\CompletedProgram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05773AAD-6043-4FAF-8889-6A526804F04D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30768DB3-BA96-497E-B07F-819105BB1E2A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{634B941A-A0F8-495D-83E3-DA8E30FFC351}"/>
   </bookViews>
